--- a/DFA EU/DFA-Costs.xlsx
+++ b/DFA EU/DFA-Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/DFA EU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{8DF5D50E-3D54-47D7-8684-DB130947FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C48050D-87C9-4C4D-B7C7-0DA1348C6E37}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{8DF5D50E-3D54-47D7-8684-DB130947FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{198DBEDE-06A1-4B96-88C0-6F0BD3DD542C}"/>
   <bookViews>
-    <workbookView xWindow="20355" yWindow="4035" windowWidth="17220" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World Equity" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,8 @@
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -190,9 +190,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -842,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3D7559-DCD3-46B8-AD3E-94F8D38FF48C}">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +855,7 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2018</v>
       </c>
@@ -865,8 +865,11 @@
       <c r="E2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>3168701</v>
       </c>
@@ -874,7 +877,7 @@
         <v>3091867</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>14260</v>
       </c>
@@ -882,7 +885,7 @@
         <v>13939</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>15577</v>
       </c>
@@ -890,24 +893,24 @@
         <v>15125</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E7" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" s="24">
         <f>E5/E7</f>
         <v>2787800</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E9" s="24">
         <f>E6/E7</f>
         <v>3025000</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
@@ -921,7 +924,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E12" s="25">
         <f>E11/E9</f>
         <v>2.6809917355371903E-4</v>
